--- a/CleanData/PerformanceTest.xlsx
+++ b/CleanData/PerformanceTest.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27907"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28016"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150001" iterateDelta="1E-4" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3487" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3703" uniqueCount="35">
   <si>
     <t>student</t>
   </si>
@@ -123,6 +123,15 @@
   </si>
   <si>
     <t>math models</t>
+  </si>
+  <si>
+    <t>UG</t>
+  </si>
+  <si>
+    <t>Calculus</t>
+  </si>
+  <si>
+    <t>PreCalculus</t>
   </si>
 </sst>
 </file>
@@ -474,10 +483,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J1161"/>
+  <dimension ref="A1:J1233"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1149" workbookViewId="0">
-      <selection activeCell="A1067" sqref="A1067:A1161"/>
+    <sheetView tabSelected="1" topLeftCell="A315" workbookViewId="0">
+      <selection activeCell="I397" sqref="I397:J522"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -25332,6 +25341,1446 @@
         <v>28</v>
       </c>
     </row>
+    <row r="1162" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1162">
+        <v>1161</v>
+      </c>
+      <c r="B1162" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1162" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1162">
+        <v>63</v>
+      </c>
+      <c r="E1162">
+        <v>25</v>
+      </c>
+      <c r="F1162" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1163" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1163">
+        <v>1162</v>
+      </c>
+      <c r="B1163" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1163" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1163">
+        <v>37</v>
+      </c>
+      <c r="E1163">
+        <v>53</v>
+      </c>
+      <c r="F1163" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1164" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1164">
+        <v>1163</v>
+      </c>
+      <c r="B1164" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1164" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1164">
+        <v>37</v>
+      </c>
+      <c r="E1164">
+        <v>27</v>
+      </c>
+      <c r="F1164" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1165" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1165">
+        <v>1164</v>
+      </c>
+      <c r="B1165" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1165" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1165">
+        <v>33</v>
+      </c>
+      <c r="E1165">
+        <v>15</v>
+      </c>
+      <c r="F1165" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1166" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1166">
+        <v>1165</v>
+      </c>
+      <c r="B1166" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1166" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1166">
+        <v>33</v>
+      </c>
+      <c r="E1166">
+        <v>28.999999999999996</v>
+      </c>
+      <c r="F1166" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1167" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1167">
+        <v>1166</v>
+      </c>
+      <c r="B1167" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1167" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1167">
+        <v>43</v>
+      </c>
+      <c r="E1167">
+        <v>51</v>
+      </c>
+      <c r="F1167" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1168" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1168">
+        <v>1167</v>
+      </c>
+      <c r="B1168" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1168" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1168">
+        <v>33</v>
+      </c>
+      <c r="E1168">
+        <v>12</v>
+      </c>
+      <c r="F1168" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1169" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1169">
+        <v>1168</v>
+      </c>
+      <c r="B1169" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1169" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1169">
+        <v>33</v>
+      </c>
+      <c r="E1169">
+        <v>59</v>
+      </c>
+      <c r="F1169" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1170" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1170">
+        <v>1169</v>
+      </c>
+      <c r="B1170" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1170" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1170">
+        <v>47</v>
+      </c>
+      <c r="E1170">
+        <v>51</v>
+      </c>
+      <c r="F1170" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1171" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1171">
+        <v>1170</v>
+      </c>
+      <c r="B1171" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1171" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1171">
+        <v>10</v>
+      </c>
+      <c r="E1171">
+        <v>72</v>
+      </c>
+      <c r="F1171" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1172" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1172">
+        <v>1171</v>
+      </c>
+      <c r="B1172" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1172" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1172">
+        <v>10</v>
+      </c>
+      <c r="E1172">
+        <v>90</v>
+      </c>
+      <c r="F1172" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1173" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1173">
+        <v>1172</v>
+      </c>
+      <c r="B1173" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1173" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1173">
+        <v>50</v>
+      </c>
+      <c r="E1173">
+        <v>60</v>
+      </c>
+      <c r="F1173" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1174" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1174">
+        <v>1173</v>
+      </c>
+      <c r="B1174" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1174" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1174">
+        <v>50</v>
+      </c>
+      <c r="E1174">
+        <v>70</v>
+      </c>
+      <c r="F1174" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1175" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1175">
+        <v>1174</v>
+      </c>
+      <c r="B1175" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1175" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1175">
+        <v>10</v>
+      </c>
+      <c r="E1175">
+        <v>60</v>
+      </c>
+      <c r="F1175" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1176" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1176">
+        <v>1175</v>
+      </c>
+      <c r="B1176" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1176" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1176">
+        <v>40</v>
+      </c>
+      <c r="E1176">
+        <v>90</v>
+      </c>
+      <c r="F1176" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1177" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1177">
+        <v>1176</v>
+      </c>
+      <c r="B1177" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1177" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1177">
+        <v>50</v>
+      </c>
+      <c r="E1177">
+        <v>80</v>
+      </c>
+      <c r="F1177" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1178" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1178">
+        <v>1177</v>
+      </c>
+      <c r="B1178" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1178" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1178">
+        <v>20</v>
+      </c>
+      <c r="E1178">
+        <v>70</v>
+      </c>
+      <c r="F1178" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1179" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1179">
+        <v>1178</v>
+      </c>
+      <c r="B1179" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1179" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1179">
+        <v>20</v>
+      </c>
+      <c r="E1179">
+        <v>100</v>
+      </c>
+      <c r="F1179" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1180" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1180">
+        <v>1179</v>
+      </c>
+      <c r="B1180" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1180" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1180">
+        <v>40</v>
+      </c>
+      <c r="E1180">
+        <v>80</v>
+      </c>
+      <c r="F1180" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1181" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1181">
+        <v>1180</v>
+      </c>
+      <c r="B1181" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1181" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1181">
+        <v>0</v>
+      </c>
+      <c r="E1181">
+        <v>70</v>
+      </c>
+      <c r="F1181" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1182" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1182">
+        <v>1181</v>
+      </c>
+      <c r="B1182" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1182" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1182">
+        <v>70</v>
+      </c>
+      <c r="E1182">
+        <v>70</v>
+      </c>
+      <c r="F1182" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1183" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1183">
+        <v>1182</v>
+      </c>
+      <c r="B1183" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1183" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1183">
+        <v>70</v>
+      </c>
+      <c r="E1183">
+        <v>60</v>
+      </c>
+      <c r="F1183" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1184" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1184">
+        <v>1183</v>
+      </c>
+      <c r="B1184" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1184" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1184">
+        <v>40</v>
+      </c>
+      <c r="E1184">
+        <v>50</v>
+      </c>
+      <c r="F1184" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1185" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1185">
+        <v>1184</v>
+      </c>
+      <c r="B1185" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1185" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1185">
+        <v>23</v>
+      </c>
+      <c r="E1185">
+        <v>33</v>
+      </c>
+      <c r="F1185" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1186" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1186">
+        <v>1185</v>
+      </c>
+      <c r="B1186" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1186" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1186">
+        <v>33</v>
+      </c>
+      <c r="E1186">
+        <v>25</v>
+      </c>
+      <c r="F1186" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1187" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1187">
+        <v>1186</v>
+      </c>
+      <c r="B1187" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1187" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1187">
+        <v>27</v>
+      </c>
+      <c r="E1187">
+        <v>53</v>
+      </c>
+      <c r="F1187" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1188" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1188">
+        <v>1187</v>
+      </c>
+      <c r="B1188" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1188" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1188">
+        <v>23</v>
+      </c>
+      <c r="E1188">
+        <v>27</v>
+      </c>
+      <c r="F1188" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1189" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1189">
+        <v>1188</v>
+      </c>
+      <c r="B1189" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1189" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1189">
+        <v>23</v>
+      </c>
+      <c r="E1189">
+        <v>15</v>
+      </c>
+      <c r="F1189" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1190" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1190">
+        <v>1189</v>
+      </c>
+      <c r="B1190" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1190" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1190">
+        <v>23</v>
+      </c>
+      <c r="E1190">
+        <v>28.999999999999996</v>
+      </c>
+      <c r="F1190" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1191" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1191">
+        <v>1190</v>
+      </c>
+      <c r="B1191" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1191" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1191">
+        <v>20</v>
+      </c>
+      <c r="E1191">
+        <v>51</v>
+      </c>
+      <c r="F1191" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1192" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1192">
+        <v>1191</v>
+      </c>
+      <c r="B1192" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1192" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1192">
+        <v>53</v>
+      </c>
+      <c r="E1192">
+        <v>12</v>
+      </c>
+      <c r="F1192" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1193" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1193">
+        <v>1192</v>
+      </c>
+      <c r="B1193" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1193" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1193">
+        <v>67</v>
+      </c>
+      <c r="E1193">
+        <v>59</v>
+      </c>
+      <c r="F1193" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1194" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1194">
+        <v>1193</v>
+      </c>
+      <c r="B1194" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1194" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1194">
+        <v>10</v>
+      </c>
+      <c r="E1194">
+        <v>51</v>
+      </c>
+      <c r="F1194" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1195" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1195">
+        <v>1194</v>
+      </c>
+      <c r="B1195" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1195" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1195">
+        <v>30</v>
+      </c>
+      <c r="E1195">
+        <v>72</v>
+      </c>
+      <c r="F1195" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1196" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1196">
+        <v>1195</v>
+      </c>
+      <c r="B1196" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1196" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1196">
+        <v>17</v>
+      </c>
+      <c r="E1196">
+        <v>40</v>
+      </c>
+      <c r="F1196" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1197" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1197">
+        <v>1196</v>
+      </c>
+      <c r="B1197" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1197" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1197">
+        <v>3</v>
+      </c>
+      <c r="E1197">
+        <v>59</v>
+      </c>
+      <c r="F1197" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1198" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1198">
+        <v>1197</v>
+      </c>
+      <c r="B1198" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1198" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1198">
+        <v>50</v>
+      </c>
+      <c r="E1198">
+        <v>67</v>
+      </c>
+      <c r="F1198" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1199" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1199">
+        <v>1198</v>
+      </c>
+      <c r="B1199" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1199" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1199">
+        <v>13</v>
+      </c>
+      <c r="E1199">
+        <v>7.0000000000000009</v>
+      </c>
+      <c r="F1199" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1200" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1200">
+        <v>1199</v>
+      </c>
+      <c r="B1200" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1200" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1200">
+        <v>30</v>
+      </c>
+      <c r="E1200">
+        <v>17</v>
+      </c>
+      <c r="F1200" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1201" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1201">
+        <v>1200</v>
+      </c>
+      <c r="B1201" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1201" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1201">
+        <v>37</v>
+      </c>
+      <c r="E1201">
+        <v>51</v>
+      </c>
+      <c r="F1201" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1202" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1202">
+        <v>1201</v>
+      </c>
+      <c r="B1202" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1202" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1202">
+        <v>33</v>
+      </c>
+      <c r="E1202">
+        <v>33</v>
+      </c>
+      <c r="F1202" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1203" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1203">
+        <v>1202</v>
+      </c>
+      <c r="B1203" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1203" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1203">
+        <v>60</v>
+      </c>
+      <c r="E1203">
+        <v>6</v>
+      </c>
+      <c r="F1203" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1204" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1204">
+        <v>1203</v>
+      </c>
+      <c r="B1204" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1204" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1204">
+        <v>37</v>
+      </c>
+      <c r="E1204">
+        <v>49</v>
+      </c>
+      <c r="F1204" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1205" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1205">
+        <v>1204</v>
+      </c>
+      <c r="B1205" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1205" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1205">
+        <v>33</v>
+      </c>
+      <c r="E1205">
+        <v>20</v>
+      </c>
+      <c r="F1205" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1206" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1206">
+        <v>1205</v>
+      </c>
+      <c r="B1206" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1206" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1206">
+        <v>37</v>
+      </c>
+      <c r="E1206">
+        <v>45</v>
+      </c>
+      <c r="F1206" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1207" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1207">
+        <v>1206</v>
+      </c>
+      <c r="B1207" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1207" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1207">
+        <v>0</v>
+      </c>
+      <c r="E1207">
+        <v>36</v>
+      </c>
+      <c r="F1207" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1208" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1208">
+        <v>1207</v>
+      </c>
+      <c r="B1208" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1208" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1208">
+        <v>0</v>
+      </c>
+      <c r="E1208">
+        <v>61</v>
+      </c>
+      <c r="F1208" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1209" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1209">
+        <v>1208</v>
+      </c>
+      <c r="B1209" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1209" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1209">
+        <v>13</v>
+      </c>
+      <c r="E1209">
+        <v>90</v>
+      </c>
+      <c r="F1209" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1210" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1210">
+        <v>1209</v>
+      </c>
+      <c r="B1210" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1210" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1210">
+        <v>60</v>
+      </c>
+      <c r="E1210">
+        <v>70</v>
+      </c>
+      <c r="F1210" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1211" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1211">
+        <v>1210</v>
+      </c>
+      <c r="B1211" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1211" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1211">
+        <v>30</v>
+      </c>
+      <c r="E1211">
+        <v>80</v>
+      </c>
+      <c r="F1211" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1212" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1212">
+        <v>1211</v>
+      </c>
+      <c r="B1212" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1212" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1212">
+        <v>50</v>
+      </c>
+      <c r="E1212">
+        <v>80</v>
+      </c>
+      <c r="F1212" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1213" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1213">
+        <v>1212</v>
+      </c>
+      <c r="B1213" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1213" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1213">
+        <v>70</v>
+      </c>
+      <c r="E1213">
+        <v>60</v>
+      </c>
+      <c r="F1213" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1214" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1214">
+        <v>1213</v>
+      </c>
+      <c r="B1214" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1214" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1214">
+        <v>60</v>
+      </c>
+      <c r="E1214">
+        <v>90</v>
+      </c>
+      <c r="F1214" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1215" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1215">
+        <v>1214</v>
+      </c>
+      <c r="B1215" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1215" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1215">
+        <v>50</v>
+      </c>
+      <c r="E1215">
+        <v>80</v>
+      </c>
+      <c r="F1215" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1216" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1216">
+        <v>1215</v>
+      </c>
+      <c r="B1216" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1216" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1216">
+        <v>40</v>
+      </c>
+      <c r="E1216">
+        <v>70</v>
+      </c>
+      <c r="F1216" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1217" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1217">
+        <v>1216</v>
+      </c>
+      <c r="B1217" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1217" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1217">
+        <v>50</v>
+      </c>
+      <c r="E1217">
+        <v>100</v>
+      </c>
+      <c r="F1217" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1218" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1218">
+        <v>1217</v>
+      </c>
+      <c r="B1218" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1218" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1218">
+        <v>50</v>
+      </c>
+      <c r="E1218">
+        <v>50</v>
+      </c>
+      <c r="F1218" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1219" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1219">
+        <v>1218</v>
+      </c>
+      <c r="B1219" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1219" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1219">
+        <v>20</v>
+      </c>
+      <c r="E1219">
+        <v>70</v>
+      </c>
+      <c r="F1219" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1220" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1220">
+        <v>1219</v>
+      </c>
+      <c r="B1220" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1220" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1220">
+        <v>60</v>
+      </c>
+      <c r="E1220">
+        <v>90</v>
+      </c>
+      <c r="F1220" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1221" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1221">
+        <v>1220</v>
+      </c>
+      <c r="B1221" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1221" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1221">
+        <v>50</v>
+      </c>
+      <c r="E1221">
+        <v>50</v>
+      </c>
+      <c r="F1221" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1222" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1222">
+        <v>1221</v>
+      </c>
+      <c r="B1222" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1222" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1222">
+        <v>60</v>
+      </c>
+      <c r="E1222">
+        <v>70</v>
+      </c>
+      <c r="F1222" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1223" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1223">
+        <v>1222</v>
+      </c>
+      <c r="B1223" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1223" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1223">
+        <v>10</v>
+      </c>
+      <c r="E1223">
+        <v>90</v>
+      </c>
+      <c r="F1223" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1224" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1224">
+        <v>1223</v>
+      </c>
+      <c r="B1224" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1224" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1224">
+        <v>30</v>
+      </c>
+      <c r="E1224">
+        <v>70</v>
+      </c>
+      <c r="F1224" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1225" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1225">
+        <v>1224</v>
+      </c>
+      <c r="B1225" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1225" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1225">
+        <v>40</v>
+      </c>
+      <c r="E1225">
+        <v>60</v>
+      </c>
+      <c r="F1225" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1226" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1226">
+        <v>1225</v>
+      </c>
+      <c r="B1226" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1226" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1226">
+        <v>0</v>
+      </c>
+      <c r="E1226">
+        <v>80</v>
+      </c>
+      <c r="F1226" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1227" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1227">
+        <v>1226</v>
+      </c>
+      <c r="B1227" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1227" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1227">
+        <v>20</v>
+      </c>
+      <c r="E1227">
+        <v>80</v>
+      </c>
+      <c r="F1227" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1228" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1228">
+        <v>1227</v>
+      </c>
+      <c r="B1228" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1228" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1228">
+        <v>50</v>
+      </c>
+      <c r="E1228">
+        <v>80</v>
+      </c>
+      <c r="F1228" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1229" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1229">
+        <v>1228</v>
+      </c>
+      <c r="B1229" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1229" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1229">
+        <v>50</v>
+      </c>
+      <c r="E1229">
+        <v>100</v>
+      </c>
+      <c r="F1229" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1230" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1230">
+        <v>1229</v>
+      </c>
+      <c r="B1230" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1230" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1230">
+        <v>10</v>
+      </c>
+      <c r="E1230">
+        <v>70</v>
+      </c>
+      <c r="F1230" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1231" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1231">
+        <v>1230</v>
+      </c>
+      <c r="B1231" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1231" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1231">
+        <v>30</v>
+      </c>
+      <c r="E1231">
+        <v>80</v>
+      </c>
+      <c r="F1231" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1232" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1232">
+        <v>1231</v>
+      </c>
+      <c r="B1232" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1232" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1232">
+        <v>50</v>
+      </c>
+      <c r="E1232">
+        <v>60</v>
+      </c>
+      <c r="F1232" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1233" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1233">
+        <v>1232</v>
+      </c>
+      <c r="B1233" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1233" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1233">
+        <v>30</v>
+      </c>
+      <c r="E1233">
+        <v>60</v>
+      </c>
+      <c r="F1233" t="s">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
